--- a/experiment result/64_0.9_40_zs40_kappa_lp.xlsx
+++ b/experiment result/64_0.9_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.011969301963568</v>
+        <v>0.02602910529247648</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006076846784612741</v>
+        <v>0.0008681530342383797</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002482836117489759</v>
+        <v>0.01022963833527133</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001774243745219919</v>
+        <v>0.01466557207646652</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00229824855163926</v>
+        <v>0.007677230673464373</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01184685578322814</v>
+        <v>0.00962903749918843</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001866955605668953</v>
+        <v>0.005346876203051172</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.004581606093070747</v>
+        <v>0.01676284768220852</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00360093360622712</v>
+        <v>0.005774861929406467</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003877647255083295</v>
+        <v>0.02226819467257813</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.002133818853405336</v>
+        <v>0.02019417847606618</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02437420125968312</v>
+        <v>0.05244851022700801</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01988347407639189</v>
+        <v>0.003144624283243262</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.006460340272731975</v>
+        <v>0.01937773682776792</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.004689894965840194</v>
+        <v>0.004293868943537096</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01773944970621211</v>
+        <v>0.005316280231464705</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.006378693954405087</v>
+        <v>0.03235808412751698</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002262427097734459</v>
+        <v>0.003007797609874365</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.005305912309658384</v>
+        <v>0.004264237503934295</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001257529360543537</v>
+        <v>0.008964947054932115</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.001547240362293642</v>
+        <v>0.0160892772632281</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.004531375360891497</v>
+        <v>0.004174841944073857</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02712091763772403</v>
+        <v>0.02325816043607264</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.004981405865571858</v>
+        <v>0.002475235122091815</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0008579302280028412</v>
+        <v>0.006254608246359962</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01403250865162696</v>
+        <v>0.0384048817270314</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005383643201437972</v>
+        <v>0.01899075745208292</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.008399231545283558</v>
+        <v>0.006416468939890027</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01526963095121796</v>
+        <v>0.01174471384788703</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.002496222857913188</v>
+        <v>0.04542604054839876</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.009939681102517015</v>
+        <v>0.0001865309517730483</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.001125673284187313</v>
+        <v>0.000888233101519232</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00201626576551562</v>
+        <v>0.0006764933482388336</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0008045098764400717</v>
+        <v>4.588306105933355e-05</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.001372405942918683</v>
+        <v>0.009723791297001154</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.006354803553753331</v>
+        <v>0.004064552869446346</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.001988171915698989</v>
+        <v>0.000136408850047371</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.005250440310420377</v>
+        <v>0.006110514836909916</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.003127372228590689</v>
+        <v>0.002319678630069763</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00334265745680053</v>
+        <v>0.03751397974393095</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.001986170839551564</v>
+        <v>0.07684764352978844</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.006763419966869365</v>
+        <v>0.03560795085442717</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.002882365696346265</v>
+        <v>0.01033666915059964</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.003899463356685934</v>
+        <v>0.03259307919269694</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.002351429303257573</v>
+        <v>0.002252887520360241</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01828271028070092</v>
+        <v>0.01435740718612098</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01429875181008677</v>
+        <v>0.03337337332580881</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.008046450202968994</v>
+        <v>0.006760110579077218</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0816910605576656</v>
+        <v>0.02964843017923287</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01098615816241213</v>
+        <v>0.005609052121138556</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.004688012987789405</v>
+        <v>0.01042422955416445</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0143979276935606</v>
+        <v>0.03386769385760593</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0015608378259643</v>
+        <v>9.507277517521391e-06</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.008826006638611422</v>
+        <v>0.0009069764397284626</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.002701770096967864</v>
+        <v>0.008491008973397746</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.002914156195818781</v>
+        <v>0.02267692963026818</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.007656081914030058</v>
+        <v>0.0006367343348725348</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.004537657893907014</v>
+        <v>0.003447206418325007</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01165706217208703</v>
+        <v>0.01519877306910556</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.004111468918554754</v>
+        <v>0.0004683890556422231</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.004671406436418971</v>
+        <v>0.0008970690320801186</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004187851636892446</v>
+        <v>0.0256293560530504</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.007807113047166699</v>
+        <v>0.017721319210727</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.005448568637364334</v>
+        <v>0.002312977020975559</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.002326379561805826</v>
+        <v>0.02052240246894672</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.002780129997589034</v>
+        <v>0.03084986778453121</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01470696247842812</v>
+        <v>0.0413973829153125</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0009072504539167127</v>
+        <v>0.001391561042248598</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.007043656193670226</v>
+        <v>0.001673297149416448</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01466243119660235</v>
+        <v>0.007363986872041488</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.004694974245270251</v>
+        <v>0.01202357721927117</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.006196253580954231</v>
+        <v>0.0009140646460571649</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.04994000986792555</v>
+        <v>0.04011610264483726</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.008993069806788259</v>
+        <v>0.02561943571326469</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.003281319529046225</v>
+        <v>0.03880607404324272</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.00723533716467277</v>
+        <v>0.05151657829276337</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.002761407883155581</v>
+        <v>0.0001227974910567911</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004484807441635803</v>
+        <v>0.01521445074193908</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.004172989899227754</v>
+        <v>0.01762232756945695</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002606959743434486</v>
+        <v>0.003503810220038451</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.001614350272309745</v>
+        <v>0.01191940978780287</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03574107399589783</v>
+        <v>0.009908487153787055</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.007561004212450533</v>
+        <v>0.00125004967654595</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.00469950875069833</v>
+        <v>0.005150307312854636</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003086445962766667</v>
+        <v>0.05026388253065701</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01002459380109105</v>
+        <v>0.00616238058742122</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.007070983475124261</v>
+        <v>0.009577084397799741</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01539885885957775</v>
+        <v>0.009908288222051422</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.002294271763053038</v>
+        <v>0.01829976884752619</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.004641224598996485</v>
+        <v>0.004545348572180046</v>
       </c>
     </row>
   </sheetData>
